--- a/Testcase_DA4.xlsx
+++ b/Testcase_DA4.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="12130" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="12130"/>
   </bookViews>
   <sheets>
     <sheet name="TestReport" sheetId="12" r:id="rId1"/>
@@ -19,7 +19,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
   </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
@@ -1523,56 +1522,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="TestReport"/>
-      <sheetName val="Đăng ký"/>
-      <sheetName val="Đăng nhập"/>
-      <sheetName val="Trang chủ "/>
-      <sheetName val="Xem chi tiết SP"/>
-      <sheetName val="Tìm kiếm "/>
-      <sheetName val="Giỏ hàng"/>
-      <sheetName val="Đặt hàng"/>
-      <sheetName val="TaiKhoan"/>
-      <sheetName val="Wishlist"/>
-      <sheetName val="Xem tin"/>
-      <sheetName val="Performance"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1">
-        <row r="5">
-          <cell r="A5">
-            <v>19</v>
-          </cell>
-          <cell r="B5">
-            <v>0</v>
-          </cell>
-          <cell r="C5">
-            <v>0</v>
-          </cell>
-          <cell r="D5">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -1864,8 +1813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2086,19 +2035,20 @@
         <v>6</v>
       </c>
       <c r="E13" s="85">
-        <f>'[1]Trang chủ '!B5</f>
+        <f>Hiring!B5</f>
+        <v>1</v>
+      </c>
+      <c r="F13" s="85">
+        <f>Hiring!C5</f>
         <v>0</v>
       </c>
-      <c r="F13" s="85">
-        <f>'[1]Trang chủ '!C5</f>
+      <c r="G13" s="85">
+        <f>Hiring!D5</f>
         <v>0</v>
       </c>
-      <c r="G13" s="85">
-        <f>'[1]Trang chủ '!D5</f>
-        <v>0</v>
-      </c>
       <c r="H13" s="85">
-        <v>9</v>
+        <f>Hiring!E5</f>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
@@ -2182,7 +2132,7 @@
       </c>
       <c r="E21" s="89">
         <f t="shared" ref="E21:H21" si="0">SUM(E11:E20)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="89">
         <f t="shared" si="0"/>
@@ -2194,7 +2144,7 @@
       </c>
       <c r="H21" s="90">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
@@ -2216,7 +2166,7 @@
       <c r="D23" s="70"/>
       <c r="E23" s="95">
         <f>($D21+$E21)*100/$H21</f>
-        <v>371.42857142857144</v>
+        <v>415.78947368421052</v>
       </c>
       <c r="F23" s="70" t="s">
         <v>9</v>
@@ -2476,7 +2426,7 @@
     </row>
     <row r="10" spans="1:9" s="37" customFormat="1" ht="155" x14ac:dyDescent="0.35">
       <c r="A10" s="29" t="str">
-        <f>IF(AND(E10=""),"","["&amp;TEXT('[2]Đăng nhập'!$B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$9:E9)+1,"##")&amp;"]")</f>
+        <f>IF(AND(E10=""),"","["&amp;TEXT('[1]Đăng nhập'!$B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$9:E9)+1,"##")&amp;"]")</f>
         <v>[DangNhap-1]</v>
       </c>
       <c r="B10" s="31" t="s">
@@ -2493,7 +2443,7 @@
       </c>
       <c r="G10" s="41">
         <f ca="1">TODAY()</f>
-        <v>45955</v>
+        <v>45956</v>
       </c>
       <c r="H10" s="29" t="s">
         <v>3</v>
@@ -2504,7 +2454,7 @@
     </row>
     <row r="11" spans="1:9" s="37" customFormat="1" ht="139.5" x14ac:dyDescent="0.35">
       <c r="A11" s="29" t="str">
-        <f>IF(AND(E11=""),"","["&amp;TEXT('[2]Đăng nhập'!$B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$9:E10)+1,"##")&amp;"]")</f>
+        <f>IF(AND(E11=""),"","["&amp;TEXT('[1]Đăng nhập'!$B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$9:E10)+1,"##")&amp;"]")</f>
         <v>[DangNhap-2]</v>
       </c>
       <c r="B11" s="31" t="s">
@@ -2521,7 +2471,7 @@
       </c>
       <c r="G11" s="41">
         <f ca="1">TODAY()</f>
-        <v>45955</v>
+        <v>45956</v>
       </c>
       <c r="H11" s="29" t="s">
         <v>3</v>
@@ -2532,7 +2482,7 @@
     </row>
     <row r="12" spans="1:9" s="37" customFormat="1" ht="155" x14ac:dyDescent="0.35">
       <c r="A12" s="29" t="str">
-        <f>IF(AND(E12=""),"","["&amp;TEXT('[2]Đăng nhập'!$B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$9:E11)+1,"##")&amp;"]")</f>
+        <f>IF(AND(E12=""),"","["&amp;TEXT('[1]Đăng nhập'!$B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$9:E11)+1,"##")&amp;"]")</f>
         <v>[DangNhap-3]</v>
       </c>
       <c r="B12" s="31" t="s">
@@ -2550,7 +2500,7 @@
       </c>
       <c r="G12" s="41">
         <f t="shared" ref="G12:G13" ca="1" si="0">TODAY()</f>
-        <v>45955</v>
+        <v>45956</v>
       </c>
       <c r="H12" s="29" t="s">
         <v>3</v>
@@ -2561,7 +2511,7 @@
     </row>
     <row r="13" spans="1:9" s="37" customFormat="1" ht="155" x14ac:dyDescent="0.35">
       <c r="A13" s="29" t="str">
-        <f>IF(AND(E13=""),"","["&amp;TEXT('[2]Đăng nhập'!$B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$9:E12)+1,"##")&amp;"]")</f>
+        <f>IF(AND(E13=""),"","["&amp;TEXT('[1]Đăng nhập'!$B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$9:E12)+1,"##")&amp;"]")</f>
         <v>[DangNhap-4]</v>
       </c>
       <c r="B13" s="31" t="s">
@@ -2579,7 +2529,7 @@
       </c>
       <c r="G13" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>45955</v>
+        <v>45956</v>
       </c>
       <c r="H13" s="29" t="s">
         <v>3</v>
@@ -2590,7 +2540,7 @@
     </row>
     <row r="14" spans="1:9" s="37" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="62" t="str">
-        <f>IF(AND(E14=""),"","["&amp;TEXT('[2]Đăng nhập'!$B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$9:E13)+1,"##")&amp;"]")</f>
+        <f>IF(AND(E14=""),"","["&amp;TEXT('[1]Đăng nhập'!$B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$9:E13)+1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B14" s="60"/>
@@ -2604,7 +2554,7 @@
     </row>
     <row r="15" spans="1:9" s="61" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="101" t="str">
-        <f>IF(AND(E15=""),"","["&amp;TEXT('[2]Đăng nhập'!$B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$9:E14)+1,"##")&amp;"]")</f>
+        <f>IF(AND(E15=""),"","["&amp;TEXT('[1]Đăng nhập'!$B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$9:E14)+1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B15" s="33"/>
@@ -2618,7 +2568,7 @@
     </row>
     <row r="16" spans="1:9" s="61" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="101" t="str">
-        <f>IF(AND(E16=""),"","["&amp;TEXT('[2]Đăng nhập'!$B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$9:E15)+1,"##")&amp;"]")</f>
+        <f>IF(AND(E16=""),"","["&amp;TEXT('[1]Đăng nhập'!$B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$9:E15)+1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B16" s="32"/>
@@ -2632,7 +2582,7 @@
     </row>
     <row r="17" spans="1:9" s="61" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17" s="101" t="str">
-        <f>IF(AND(E17=""),"","["&amp;TEXT('[2]Đăng nhập'!$B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$9:E16)+1,"##")&amp;"]")</f>
+        <f>IF(AND(E17=""),"","["&amp;TEXT('[1]Đăng nhập'!$B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$9:E16)+1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B17" s="32"/>
@@ -2646,7 +2596,7 @@
     </row>
     <row r="18" spans="1:9" s="61" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A18" s="101" t="str">
-        <f>IF(AND(E18=""),"","["&amp;TEXT('[2]Đăng nhập'!$B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$9:E17)+1,"##")&amp;"]")</f>
+        <f>IF(AND(E18=""),"","["&amp;TEXT('[1]Đăng nhập'!$B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$9:E17)+1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B18" s="32"/>
@@ -2660,7 +2610,7 @@
     </row>
     <row r="19" spans="1:9" s="61" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19" s="101" t="str">
-        <f>IF(AND(E19=""),"","["&amp;TEXT('[2]Đăng nhập'!$B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$9:E18)+1,"##")&amp;"]")</f>
+        <f>IF(AND(E19=""),"","["&amp;TEXT('[1]Đăng nhập'!$B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$9:E18)+1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B19" s="32"/>
@@ -2674,7 +2624,7 @@
     </row>
     <row r="20" spans="1:9" s="61" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A20" s="101" t="str">
-        <f>IF(AND(E20=""),"","["&amp;TEXT('[2]Đăng nhập'!$B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$9:E19)+1,"##")&amp;"]")</f>
+        <f>IF(AND(E20=""),"","["&amp;TEXT('[1]Đăng nhập'!$B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$9:E19)+1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B20" s="32"/>
@@ -2688,7 +2638,7 @@
     </row>
     <row r="21" spans="1:9" s="61" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21" s="101" t="str">
-        <f>IF(AND(E21=""),"","["&amp;TEXT('[2]Đăng nhập'!$B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$9:E20)+1,"##")&amp;"]")</f>
+        <f>IF(AND(E21=""),"","["&amp;TEXT('[1]Đăng nhập'!$B$1,"##")&amp;"-"&amp;TEXT(ROW()-9-COUNTBLANK($E$9:E20)+1,"##")&amp;"]")</f>
         <v/>
       </c>
       <c r="B21" s="33"/>
@@ -2892,7 +2842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="102" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="102" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="A8" sqref="A8:E16"/>
     </sheetView>
   </sheetViews>
@@ -3079,7 +3029,7 @@
       </c>
       <c r="G9" s="41">
         <f ca="1">TODAY()</f>
-        <v>45955</v>
+        <v>45956</v>
       </c>
       <c r="H9" s="29" t="s">
         <v>3</v>
@@ -3110,7 +3060,7 @@
       </c>
       <c r="G10" s="41">
         <f t="shared" ref="G10:G16" ca="1" si="0">TODAY()</f>
-        <v>45955</v>
+        <v>45956</v>
       </c>
       <c r="H10" s="29" t="s">
         <v>3</v>
@@ -3141,7 +3091,7 @@
       </c>
       <c r="G11" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>45955</v>
+        <v>45956</v>
       </c>
       <c r="H11" s="29" t="s">
         <v>3</v>
@@ -3172,7 +3122,7 @@
       </c>
       <c r="G12" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>45955</v>
+        <v>45956</v>
       </c>
       <c r="H12" s="29" t="s">
         <v>3</v>
@@ -3203,7 +3153,7 @@
       </c>
       <c r="G13" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>45955</v>
+        <v>45956</v>
       </c>
       <c r="H13" s="29" t="s">
         <v>3</v>
@@ -3234,7 +3184,7 @@
       </c>
       <c r="G14" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>45955</v>
+        <v>45956</v>
       </c>
       <c r="H14" s="29" t="s">
         <v>3</v>
@@ -3265,7 +3215,7 @@
       </c>
       <c r="G15" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>45955</v>
+        <v>45956</v>
       </c>
       <c r="H15" s="29" t="s">
         <v>3</v>
@@ -3296,7 +3246,7 @@
       </c>
       <c r="G16" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>45955</v>
+        <v>45956</v>
       </c>
       <c r="H16" s="29" t="s">
         <v>3</v>
@@ -3353,7 +3303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="83" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -3538,7 +3488,7 @@
       </c>
       <c r="G9" s="41">
         <f ca="1">TODAY()</f>
-        <v>45955</v>
+        <v>45956</v>
       </c>
       <c r="H9" s="29" t="s">
         <v>3</v>
@@ -3564,8 +3514,8 @@
         <v>4</v>
       </c>
       <c r="G10" s="41">
-        <f t="shared" ref="G10:G16" ca="1" si="0">TODAY()</f>
-        <v>45955</v>
+        <f t="shared" ref="G10:G15" ca="1" si="0">TODAY()</f>
+        <v>45956</v>
       </c>
       <c r="H10" s="29" t="s">
         <v>3</v>
@@ -3591,7 +3541,7 @@
       </c>
       <c r="G11" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>45955</v>
+        <v>45956</v>
       </c>
       <c r="H11" s="29" t="s">
         <v>3</v>
@@ -3617,7 +3567,7 @@
       </c>
       <c r="G12" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>45955</v>
+        <v>45956</v>
       </c>
       <c r="H12" s="29" t="s">
         <v>3</v>
@@ -3643,7 +3593,7 @@
       </c>
       <c r="G13" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>45955</v>
+        <v>45956</v>
       </c>
       <c r="H13" s="29" t="s">
         <v>3</v>
@@ -3669,7 +3619,7 @@
       </c>
       <c r="G14" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>45955</v>
+        <v>45956</v>
       </c>
       <c r="H14" s="29" t="s">
         <v>3</v>
@@ -3695,7 +3645,7 @@
       </c>
       <c r="G15" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>45955</v>
+        <v>45956</v>
       </c>
       <c r="H15" s="29" t="s">
         <v>3</v>

--- a/Testcase_DA4.xlsx
+++ b/Testcase_DA4.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoang\Desktop\ĐỒ ÁN 4\Project4_LuuThiAnDuyen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoang\Desktop\DA4\Project4_LuuThiAnDuyen\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="12130"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="12130" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="TestReport" sheetId="12" r:id="rId1"/>
@@ -1813,7 +1813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -2443,7 +2443,7 @@
       </c>
       <c r="G10" s="41">
         <f ca="1">TODAY()</f>
-        <v>45956</v>
+        <v>46016</v>
       </c>
       <c r="H10" s="29" t="s">
         <v>3</v>
@@ -2471,7 +2471,7 @@
       </c>
       <c r="G11" s="41">
         <f ca="1">TODAY()</f>
-        <v>45956</v>
+        <v>46016</v>
       </c>
       <c r="H11" s="29" t="s">
         <v>3</v>
@@ -2500,7 +2500,7 @@
       </c>
       <c r="G12" s="41">
         <f t="shared" ref="G12:G13" ca="1" si="0">TODAY()</f>
-        <v>45956</v>
+        <v>46016</v>
       </c>
       <c r="H12" s="29" t="s">
         <v>3</v>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="G13" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>45956</v>
+        <v>46016</v>
       </c>
       <c r="H13" s="29" t="s">
         <v>3</v>
@@ -2842,8 +2842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView zoomScale="102" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:E16"/>
+    <sheetView topLeftCell="A16" zoomScale="102" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="G9" s="41">
         <f ca="1">TODAY()</f>
-        <v>45956</v>
+        <v>46016</v>
       </c>
       <c r="H9" s="29" t="s">
         <v>3</v>
@@ -3060,7 +3060,7 @@
       </c>
       <c r="G10" s="41">
         <f t="shared" ref="G10:G16" ca="1" si="0">TODAY()</f>
-        <v>45956</v>
+        <v>46016</v>
       </c>
       <c r="H10" s="29" t="s">
         <v>3</v>
@@ -3091,7 +3091,7 @@
       </c>
       <c r="G11" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>45956</v>
+        <v>46016</v>
       </c>
       <c r="H11" s="29" t="s">
         <v>3</v>
@@ -3122,7 +3122,7 @@
       </c>
       <c r="G12" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>45956</v>
+        <v>46016</v>
       </c>
       <c r="H12" s="29" t="s">
         <v>3</v>
@@ -3153,7 +3153,7 @@
       </c>
       <c r="G13" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>45956</v>
+        <v>46016</v>
       </c>
       <c r="H13" s="29" t="s">
         <v>3</v>
@@ -3184,7 +3184,7 @@
       </c>
       <c r="G14" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>45956</v>
+        <v>46016</v>
       </c>
       <c r="H14" s="29" t="s">
         <v>3</v>
@@ -3215,7 +3215,7 @@
       </c>
       <c r="G15" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>45956</v>
+        <v>46016</v>
       </c>
       <c r="H15" s="29" t="s">
         <v>3</v>
@@ -3246,7 +3246,7 @@
       </c>
       <c r="G16" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>45956</v>
+        <v>46016</v>
       </c>
       <c r="H16" s="29" t="s">
         <v>3</v>
@@ -3303,8 +3303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="83" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3488,7 +3488,7 @@
       </c>
       <c r="G9" s="41">
         <f ca="1">TODAY()</f>
-        <v>45956</v>
+        <v>46016</v>
       </c>
       <c r="H9" s="29" t="s">
         <v>3</v>
@@ -3515,7 +3515,7 @@
       </c>
       <c r="G10" s="41">
         <f t="shared" ref="G10:G15" ca="1" si="0">TODAY()</f>
-        <v>45956</v>
+        <v>46016</v>
       </c>
       <c r="H10" s="29" t="s">
         <v>3</v>
@@ -3541,7 +3541,7 @@
       </c>
       <c r="G11" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>45956</v>
+        <v>46016</v>
       </c>
       <c r="H11" s="29" t="s">
         <v>3</v>
@@ -3567,7 +3567,7 @@
       </c>
       <c r="G12" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>45956</v>
+        <v>46016</v>
       </c>
       <c r="H12" s="29" t="s">
         <v>3</v>
@@ -3593,7 +3593,7 @@
       </c>
       <c r="G13" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>45956</v>
+        <v>46016</v>
       </c>
       <c r="H13" s="29" t="s">
         <v>3</v>
@@ -3619,7 +3619,7 @@
       </c>
       <c r="G14" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>45956</v>
+        <v>46016</v>
       </c>
       <c r="H14" s="29" t="s">
         <v>3</v>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="G15" s="41">
         <f t="shared" ca="1" si="0"/>
-        <v>45956</v>
+        <v>46016</v>
       </c>
       <c r="H15" s="29" t="s">
         <v>3</v>
